--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9642A10-FF92-45A7-B448-02679E80B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9936B5E0-B69D-403A-AB29-08C23083BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="137">
   <si>
     <t>Source</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Mystery Case. Genomically linked to SA Case</t>
   </si>
   <si>
-    <t>?1</t>
-  </si>
-  <si>
     <t>GP Clinic</t>
   </si>
   <si>
@@ -154,45 +151,9 @@
     <t>Household</t>
   </si>
   <si>
-    <t>#f5f5fe</t>
-  </si>
-  <si>
-    <t>#ebebfe</t>
-  </si>
-  <si>
-    <t>#e1e1fd</t>
-  </si>
-  <si>
-    <t>#d6d8fd</t>
-  </si>
-  <si>
     <t>Colour Code</t>
   </si>
   <si>
-    <t>#cccefc</t>
-  </si>
-  <si>
-    <t>#c1c5fb</t>
-  </si>
-  <si>
-    <t>#b6bbfa</t>
-  </si>
-  <si>
-    <t>#abb2f9</t>
-  </si>
-  <si>
-    <t>#9fa9f8</t>
-  </si>
-  <si>
-    <t>#93a0f7</t>
-  </si>
-  <si>
-    <t>#8697f6</t>
-  </si>
-  <si>
-    <t>#788ef5</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -262,12 +223,6 @@
     <t>Sporting Globe</t>
   </si>
   <si>
-    <t>? # a</t>
-  </si>
-  <si>
-    <t>? # b</t>
-  </si>
-  <si>
     <t>A 1</t>
   </si>
   <si>
@@ -295,9 +250,6 @@
     <t>M # e</t>
   </si>
   <si>
-    <t>North Melbourne Primary School</t>
-  </si>
-  <si>
     <t>M # f</t>
   </si>
   <si>
@@ -431,6 +383,69 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>P 26</t>
+  </si>
+  <si>
+    <t>P 27</t>
+  </si>
+  <si>
+    <t>P 28</t>
+  </si>
+  <si>
+    <t>#E8D1FF</t>
+  </si>
+  <si>
+    <t>M # i</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Student, North Melbourne Primary School</t>
+  </si>
+  <si>
+    <t>#eae8fe</t>
+  </si>
+  <si>
+    <t>#e0dcfd</t>
+  </si>
+  <si>
+    <t>#d5d1fc</t>
+  </si>
+  <si>
+    <t>#cac5fc</t>
+  </si>
+  <si>
+    <t>#bebafb</t>
+  </si>
+  <si>
+    <t>#b3affa</t>
+  </si>
+  <si>
+    <t>#a7a4f9</t>
+  </si>
+  <si>
+    <t>#9a99f8</t>
+  </si>
+  <si>
+    <t>#8d8ff6</t>
+  </si>
+  <si>
+    <t>#7f84f5</t>
+  </si>
+  <si>
+    <t>#6f7af4</t>
+  </si>
+  <si>
+    <t>#5e70f2</t>
+  </si>
+  <si>
+    <t>#4966f1</t>
+  </si>
+  <si>
+    <t>#f5f3fe</t>
   </si>
 </sst>
 </file>
@@ -494,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G72" totalsRowShown="0">
-  <autoFilter ref="A1:G72" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G74" totalsRowShown="0">
+  <autoFilter ref="A1:G74" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -510,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -818,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -850,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -861,16 +876,16 @@
         <v>44340</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -878,10 +893,10 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -893,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -901,10 +916,10 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -916,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -924,10 +939,10 @@
         <v>44343</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -939,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -947,10 +962,10 @@
         <v>44344</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -959,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -970,22 +985,22 @@
         <v>44343</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -993,10 +1008,10 @@
         <v>44342</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1005,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1016,10 +1031,10 @@
         <v>44342</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1028,10 +1043,10 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1039,10 +1054,10 @@
         <v>44342</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1051,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1062,10 +1077,10 @@
         <v>44342</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1074,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1085,10 +1100,10 @@
         <v>44341</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1100,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1108,19 +1123,19 @@
         <v>44346</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1128,10 +1143,10 @@
         <v>44343</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1140,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1151,10 +1166,10 @@
         <v>44345</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1163,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1174,10 +1189,10 @@
         <v>44345</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1186,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1197,10 +1212,10 @@
         <v>44345</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1209,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1220,10 +1235,10 @@
         <v>44345</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1232,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1243,19 +1258,19 @@
         <v>44347</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1263,16 +1278,16 @@
         <v>44348</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1280,22 +1295,22 @@
         <v>44344</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1303,19 +1318,19 @@
         <v>44346</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1323,19 +1338,19 @@
         <v>44348</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1343,19 +1358,19 @@
         <v>44348</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1363,19 +1378,19 @@
         <v>44348</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1383,19 +1398,19 @@
         <v>44341</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1403,19 +1418,19 @@
         <v>44341</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1423,19 +1438,19 @@
         <v>44341</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1443,19 +1458,19 @@
         <v>44342</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1463,19 +1478,19 @@
         <v>44344</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1483,19 +1498,19 @@
         <v>44350</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1503,16 +1518,16 @@
         <v>44352</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1520,19 +1535,19 @@
         <v>44352</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1540,19 +1555,19 @@
         <v>44342</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1560,19 +1575,19 @@
         <v>44342</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1580,19 +1595,19 @@
         <v>44342</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1600,19 +1615,19 @@
         <v>44342</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1620,19 +1635,19 @@
         <v>44343</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1640,19 +1655,19 @@
         <v>44343</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1660,19 +1675,19 @@
         <v>44343</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1680,19 +1695,19 @@
         <v>44343</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1700,19 +1715,19 @@
         <v>44343</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1720,19 +1735,19 @@
         <v>44343</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1740,19 +1755,19 @@
         <v>44343</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1760,19 +1775,19 @@
         <v>44343</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1780,56 +1795,59 @@
         <v>44350</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>44344</v>
+        <v>44353</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>44346</v>
+        <v>44344</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1837,53 +1855,50 @@
         <v>44346</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1891,19 +1906,19 @@
         <v>44348</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1911,56 +1926,59 @@
         <v>44348</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1968,50 +1986,53 @@
         <v>44348</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2019,16 +2040,19 @@
         <v>44349</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2036,16 +2060,19 @@
         <v>44349</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2053,36 +2080,39 @@
         <v>44349</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2090,19 +2120,19 @@
         <v>44351</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2110,39 +2140,39 @@
         <v>44351</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2150,76 +2180,76 @@
         <v>44352</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="G66" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>44346</v>
+        <v>44352</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -2227,59 +2257,99 @@
         <v>44348</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
         <v>44352</v>
       </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" t="s">
         <v>114</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2292,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2309,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2320,10 +2390,10 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2331,10 +2401,10 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2342,10 +2412,10 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2353,10 +2423,10 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2364,10 +2434,10 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2375,10 +2445,10 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -2386,10 +2456,10 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2397,10 +2467,10 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2408,10 +2478,10 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2419,10 +2489,10 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2430,10 +2500,10 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2441,26 +2511,36 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.45">
-      <c r="I19">
-        <f>1/108</f>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="J19">
-        <f>1-I19</f>
-        <v>0.9907407407407407</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9936B5E0-B69D-403A-AB29-08C23083BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E6B46-B819-401A-8722-8642D1B3E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1518,7 +1518,7 @@
         <v>44352</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -2003,7 +2003,7 @@
         <v>44348</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
@@ -2364,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E6B46-B819-401A-8722-8642D1B3E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A8CE8-AFB4-4A61-9AAE-F1F89E28AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -446,16 +446,58 @@
   </si>
   <si>
     <t>#f5f3fe</t>
+  </si>
+  <si>
+    <t>W 30</t>
+  </si>
+  <si>
+    <t>W 31</t>
+  </si>
+  <si>
+    <t>W 32</t>
+  </si>
+  <si>
+    <t>P 29</t>
+  </si>
+  <si>
+    <t>A # a</t>
+  </si>
+  <si>
+    <t>A # b</t>
+  </si>
+  <si>
+    <t>A # c</t>
+  </si>
+  <si>
+    <t>M # j</t>
+  </si>
+  <si>
+    <t>M # k</t>
+  </si>
+  <si>
+    <t>M # l</t>
+  </si>
+  <si>
+    <t>M # m</t>
+  </si>
+  <si>
+    <t>#CC99FF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G74" totalsRowShown="0">
-  <autoFilter ref="A1:G74" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G86" totalsRowShown="0">
+  <autoFilter ref="A1:G86" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -833,11 +875,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -890,7 +930,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -913,22 +953,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>44343</v>
+        <v>44341</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -942,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -959,22 +996,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -982,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1005,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1034,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1057,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1080,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1097,22 +1134,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -1120,19 +1157,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>44346</v>
+        <v>44341</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -1140,22 +1180,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -1163,22 +1200,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>44345</v>
+        <v>44343</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -1192,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1215,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1238,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1247,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -1255,19 +1292,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44347</v>
+        <v>44345</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -1275,16 +1315,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -1292,22 +1335,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -1315,19 +1352,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44346</v>
+        <v>44344</v>
       </c>
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -1335,19 +1375,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -1361,7 +1401,7 @@
         <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1381,7 +1421,7 @@
         <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1395,19 +1435,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -1421,13 +1461,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -1441,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -1455,19 +1495,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -1475,13 +1515,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1495,19 +1535,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -1515,16 +1555,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -1532,19 +1575,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -1552,19 +1595,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -1572,19 +1615,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -1592,39 +1635,36 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
       <c r="G36" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>98</v>
@@ -1632,33 +1672,30 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>44343</v>
+        <v>44354</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
       <c r="G38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -1672,13 +1709,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -1692,13 +1729,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
@@ -1712,13 +1749,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
@@ -1738,7 +1775,7 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
@@ -1758,7 +1795,7 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1778,7 +1815,7 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -1792,13 +1829,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>44350</v>
+        <v>44343</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>46</v>
@@ -1812,13 +1849,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>44353</v>
+        <v>44343</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
@@ -1832,19 +1869,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -1852,70 +1889,79 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>44346</v>
+        <v>44343</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
       </c>
+      <c r="F49" t="s">
+        <v>48</v>
+      </c>
       <c r="G49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>44346</v>
+        <v>44343</v>
       </c>
       <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
       </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
       <c r="G50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
       </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
       <c r="G51" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -1923,19 +1969,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -1943,53 +1989,47 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>46</v>
       </c>
-      <c r="F54" t="s">
-        <v>37</v>
-      </c>
       <c r="G54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>44349</v>
+        <v>44346</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>46</v>
       </c>
-      <c r="F55" t="s">
-        <v>48</v>
-      </c>
       <c r="G55" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
         <v>46</v>
@@ -2003,27 +2043,30 @@
         <v>44348</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
       <c r="G57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
@@ -2037,22 +2080,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2060,59 +2103,53 @@
         <v>44349</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2120,30 +2157,30 @@
         <v>44351</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
@@ -2157,13 +2194,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
         <v>64</v>
@@ -2177,19 +2214,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
-        <v>44352</v>
+        <v>44349</v>
       </c>
       <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
         <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
       </c>
       <c r="D66" t="s">
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>99</v>
@@ -2197,19 +2234,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>44352</v>
+        <v>44349</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>99</v>
@@ -2217,19 +2254,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
         <v>99</v>
@@ -2237,122 +2274,363 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>44346</v>
+        <v>44351</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
       </c>
       <c r="G74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2364,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2535,6 +2813,9 @@
       <c r="B15" t="s">
         <v>135</v>
       </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A8CE8-AFB4-4A61-9AAE-F1F89E28AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50993F55-FDE2-486D-9BFE-8E32A6A06BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -403,51 +403,9 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>Student, North Melbourne Primary School</t>
-  </si>
-  <si>
-    <t>#eae8fe</t>
-  </si>
-  <si>
-    <t>#e0dcfd</t>
-  </si>
-  <si>
-    <t>#d5d1fc</t>
-  </si>
-  <si>
-    <t>#cac5fc</t>
-  </si>
-  <si>
-    <t>#bebafb</t>
-  </si>
-  <si>
-    <t>#b3affa</t>
-  </si>
-  <si>
-    <t>#a7a4f9</t>
-  </si>
-  <si>
-    <t>#9a99f8</t>
-  </si>
-  <si>
-    <t>#8d8ff6</t>
-  </si>
-  <si>
-    <t>#7f84f5</t>
-  </si>
-  <si>
-    <t>#6f7af4</t>
-  </si>
-  <si>
-    <t>#5e70f2</t>
-  </si>
-  <si>
     <t>#4966f1</t>
   </si>
   <si>
-    <t>#f5f3fe</t>
-  </si>
-  <si>
     <t>W 30</t>
   </si>
   <si>
@@ -482,6 +440,60 @@
   </si>
   <si>
     <t>#CC99FF</t>
+  </si>
+  <si>
+    <t>#f5f4ff</t>
+  </si>
+  <si>
+    <t>#ece9fe</t>
+  </si>
+  <si>
+    <t>#e2defd</t>
+  </si>
+  <si>
+    <t>#d8d4fd</t>
+  </si>
+  <si>
+    <t>#cdc9fc</t>
+  </si>
+  <si>
+    <t>#c3bffb</t>
+  </si>
+  <si>
+    <t>#b8b4fa</t>
+  </si>
+  <si>
+    <t>#adaaf9</t>
+  </si>
+  <si>
+    <t>#a2a0f8</t>
+  </si>
+  <si>
+    <t>#9696f7</t>
+  </si>
+  <si>
+    <t>#898cf6</t>
+  </si>
+  <si>
+    <t>#7c82f5</t>
+  </si>
+  <si>
+    <t>#6d79f4</t>
+  </si>
+  <si>
+    <t>#5d6ff2</t>
+  </si>
+  <si>
+    <t>#CC66FF</t>
+  </si>
+  <si>
+    <t>A # d</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>M # n</t>
   </si>
 </sst>
 </file>
@@ -551,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G86" totalsRowShown="0">
-  <autoFilter ref="A1:G86" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0">
+  <autoFilter ref="A1:G88" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -567,8 +579,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -875,9 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1581,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1601,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1621,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1678,7 +1692,7 @@
         <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
@@ -2266,7 +2280,7 @@
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
         <v>99</v>
@@ -2326,7 +2340,7 @@
         <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
         <v>99</v>
@@ -2380,7 +2394,7 @@
         <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
         <v>64</v>
@@ -2400,7 +2414,7 @@
         <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
         <v>64</v>
@@ -2420,7 +2434,7 @@
         <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
         <v>64</v>
@@ -2440,7 +2454,7 @@
         <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
         <v>64</v>
@@ -2454,36 +2468,36 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>44346</v>
+        <v>44355</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D79" t="s">
         <v>63</v>
-      </c>
-      <c r="F79" t="s">
-        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -2494,16 +2508,16 @@
         <v>44348</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
         <v>63</v>
       </c>
       <c r="F80" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>98</v>
@@ -2517,13 +2531,13 @@
         <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
         <v>63</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -2531,19 +2545,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B82" t="s">
         <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
         <v>63</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -2551,19 +2565,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B83" t="s">
         <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
         <v>63</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s">
         <v>98</v>
@@ -2571,19 +2585,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B84" t="s">
         <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
         <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -2597,7 +2611,7 @@
         <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
         <v>63</v>
@@ -2617,15 +2631,55 @@
         <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>63</v>
       </c>
       <c r="F86" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" t="s">
         <v>73</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2640,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2668,7 +2722,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2679,7 +2733,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2690,7 +2744,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2701,7 +2755,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2712,7 +2766,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -2723,7 +2777,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>106</v>
@@ -2734,7 +2788,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -2745,7 +2799,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -2756,7 +2810,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
@@ -2767,7 +2821,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -2778,7 +2832,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>111</v>
@@ -2789,7 +2843,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>112</v>
@@ -2800,7 +2854,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>119</v>
@@ -2811,10 +2865,21 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50993F55-FDE2-486D-9BFE-8E32A6A06BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6B156-5A09-48CC-8354-D8AE159F8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="156">
   <si>
     <t>Source</t>
   </si>
@@ -121,15 +121,9 @@
     <t>#FFD966</t>
   </si>
   <si>
-    <t>#FFF2CC</t>
-  </si>
-  <si>
     <t>#FBE5D6</t>
   </si>
   <si>
-    <t>#F4B183</t>
-  </si>
-  <si>
     <t>W 9 / P 1</t>
   </si>
   <si>
@@ -352,27 +346,18 @@
     <t>Colour Code dbRaevn</t>
   </si>
   <si>
-    <t>#FFC000</t>
-  </si>
-  <si>
     <t>#ED7D31</t>
   </si>
   <si>
     <t>#E2F0D9</t>
   </si>
   <si>
-    <t>#A9D18E</t>
-  </si>
-  <si>
     <t>#70AD47</t>
   </si>
   <si>
     <t>#DEEBF7</t>
   </si>
   <si>
-    <t>#9DC3E6</t>
-  </si>
-  <si>
     <t>#5B9BD5</t>
   </si>
   <si>
@@ -394,9 +379,6 @@
     <t>P 28</t>
   </si>
   <si>
-    <t>#E8D1FF</t>
-  </si>
-  <si>
     <t>M # i</t>
   </si>
   <si>
@@ -439,54 +421,6 @@
     <t>M # m</t>
   </si>
   <si>
-    <t>#CC99FF</t>
-  </si>
-  <si>
-    <t>#f5f4ff</t>
-  </si>
-  <si>
-    <t>#ece9fe</t>
-  </si>
-  <si>
-    <t>#e2defd</t>
-  </si>
-  <si>
-    <t>#d8d4fd</t>
-  </si>
-  <si>
-    <t>#cdc9fc</t>
-  </si>
-  <si>
-    <t>#c3bffb</t>
-  </si>
-  <si>
-    <t>#b8b4fa</t>
-  </si>
-  <si>
-    <t>#adaaf9</t>
-  </si>
-  <si>
-    <t>#a2a0f8</t>
-  </si>
-  <si>
-    <t>#9696f7</t>
-  </si>
-  <si>
-    <t>#898cf6</t>
-  </si>
-  <si>
-    <t>#7c82f5</t>
-  </si>
-  <si>
-    <t>#6d79f4</t>
-  </si>
-  <si>
-    <t>#5d6ff2</t>
-  </si>
-  <si>
-    <t>#CC66FF</t>
-  </si>
-  <si>
     <t>A # d</t>
   </si>
   <si>
@@ -494,6 +428,81 @@
   </si>
   <si>
     <t>M # n</t>
+  </si>
+  <si>
+    <t>P 30</t>
+  </si>
+  <si>
+    <t>#FFF6DD</t>
+  </si>
+  <si>
+    <t>#FFE699</t>
+  </si>
+  <si>
+    <t>#E2AC00</t>
+  </si>
+  <si>
+    <t>#F8CBAD</t>
+  </si>
+  <si>
+    <t>#C55A11</t>
+  </si>
+  <si>
+    <t>#C5E0B4</t>
+  </si>
+  <si>
+    <t>#548235</t>
+  </si>
+  <si>
+    <t>#BDD7EE</t>
+  </si>
+  <si>
+    <t>#327EC4</t>
+  </si>
+  <si>
+    <t>#f6f5ff</t>
+  </si>
+  <si>
+    <t>#edebfe</t>
+  </si>
+  <si>
+    <t>#e4e0fd</t>
+  </si>
+  <si>
+    <t>#dad6fd</t>
+  </si>
+  <si>
+    <t>#d1ccfc</t>
+  </si>
+  <si>
+    <t>#c7c3fb</t>
+  </si>
+  <si>
+    <t>#bdb9fb</t>
+  </si>
+  <si>
+    <t>#b3affa</t>
+  </si>
+  <si>
+    <t>#a8a6f9</t>
+  </si>
+  <si>
+    <t>#9d9cf8</t>
+  </si>
+  <si>
+    <t>#9293f7</t>
+  </si>
+  <si>
+    <t>#868af6</t>
+  </si>
+  <si>
+    <t>#7980f5</t>
+  </si>
+  <si>
+    <t>#6b77f3</t>
+  </si>
+  <si>
+    <t>#5c6ff2</t>
   </si>
 </sst>
 </file>
@@ -563,8 +572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0">
-  <autoFilter ref="A1:G88" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0">
+  <autoFilter ref="A1:G89" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -579,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -887,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -922,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -939,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -962,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -982,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1005,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1028,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1048,10 +1057,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1074,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1085,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1094,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1117,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1140,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1163,10 +1172,10 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1189,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1200,16 +1209,16 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1229,10 +1238,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1243,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1252,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1266,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1275,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1289,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1298,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1312,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1321,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1332,19 +1341,19 @@
         <v>44347</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1355,13 +1364,13 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1372,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1381,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1392,19 +1401,19 @@
         <v>44346</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1412,19 +1421,19 @@
         <v>44348</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1432,19 +1441,19 @@
         <v>44348</v>
       </c>
       <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1452,19 +1461,19 @@
         <v>44348</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1475,16 +1484,16 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1495,16 +1504,16 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1515,16 +1524,16 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1535,16 +1544,16 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1555,16 +1564,16 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1572,19 +1581,19 @@
         <v>44350</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1595,16 +1604,16 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1615,16 +1624,16 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1635,16 +1644,16 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1652,16 +1661,16 @@
         <v>44352</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1669,19 +1678,19 @@
         <v>44352</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1689,16 +1698,16 @@
         <v>44354</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1706,19 +1715,19 @@
         <v>44342</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1726,19 +1735,19 @@
         <v>44342</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
         <v>46</v>
       </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1746,19 +1755,19 @@
         <v>44342</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1766,19 +1775,19 @@
         <v>44342</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1786,19 +1795,19 @@
         <v>44343</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="F43" t="s">
-        <v>48</v>
-      </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1806,19 +1815,19 @@
         <v>44343</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
         <v>46</v>
       </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1826,19 +1835,19 @@
         <v>44343</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1846,19 +1855,19 @@
         <v>44343</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1866,19 +1875,19 @@
         <v>44343</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1886,19 +1895,19 @@
         <v>44343</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1906,19 +1915,19 @@
         <v>44343</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
         <v>46</v>
       </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1926,19 +1935,19 @@
         <v>44343</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1946,19 +1955,19 @@
         <v>44350</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1966,19 +1975,19 @@
         <v>44353</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="F52" t="s">
-        <v>48</v>
-      </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1986,19 +1995,19 @@
         <v>44344</v>
       </c>
       <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -2006,16 +2015,16 @@
         <v>44346</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -2023,16 +2032,16 @@
         <v>44346</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -2040,16 +2049,16 @@
         <v>44347</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -2057,19 +2066,19 @@
         <v>44348</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2077,19 +2086,19 @@
         <v>44348</v>
       </c>
       <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
         <v>89</v>
       </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2097,19 +2106,19 @@
         <v>44348</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2117,19 +2126,19 @@
         <v>44349</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
         <v>46</v>
       </c>
-      <c r="F60" t="s">
-        <v>48</v>
-      </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2137,16 +2146,16 @@
         <v>44348</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -2154,16 +2163,16 @@
         <v>44348</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2171,39 +2180,39 @@
         <v>44351</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2211,19 +2220,19 @@
         <v>44349</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2231,19 +2240,19 @@
         <v>44349</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2251,39 +2260,39 @@
         <v>44349</v>
       </c>
       <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
         <v>65</v>
       </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
@@ -2291,19 +2300,19 @@
         <v>44351</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -2311,39 +2320,39 @@
         <v>44351</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
@@ -2354,56 +2363,56 @@
         <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -2411,19 +2420,19 @@
         <v>44354</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -2431,19 +2440,19 @@
         <v>44354</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
@@ -2451,76 +2460,76 @@
         <v>44354</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>44346</v>
+        <v>44355</v>
       </c>
       <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
         <v>62</v>
       </c>
-      <c r="C79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" t="s">
-        <v>63</v>
+      <c r="F79" t="s">
+        <v>129</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
@@ -2528,19 +2537,19 @@
         <v>44348</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F81" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -2548,79 +2557,79 @@
         <v>44348</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -2628,19 +2637,19 @@
         <v>44354</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
@@ -2648,39 +2657,59 @@
         <v>44354</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
         <v>44355</v>
       </c>
-      <c r="B88" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" t="s">
-        <v>63</v>
-      </c>
-      <c r="F88" t="s">
-        <v>37</v>
-      </c>
-      <c r="G88" t="s">
-        <v>98</v>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2694,11 +2723,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2711,10 +2738,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2722,10 +2749,10 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2733,10 +2760,10 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2744,10 +2771,10 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2755,10 +2782,10 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2766,10 +2793,10 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2777,10 +2804,10 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -2788,10 +2815,10 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2799,10 +2826,10 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2810,10 +2837,10 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2821,10 +2848,10 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2832,10 +2859,10 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2843,10 +2870,10 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2854,10 +2881,10 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -2865,10 +2892,10 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -2876,10 +2903,21 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6B156-5A09-48CC-8354-D8AE159F8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D90CE5-CFEF-4FAB-BD81-6802600E7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="162">
   <si>
     <t>Source</t>
   </si>
@@ -460,49 +460,67 @@
     <t>#327EC4</t>
   </si>
   <si>
-    <t>#f6f5ff</t>
-  </si>
-  <si>
-    <t>#edebfe</t>
-  </si>
-  <si>
-    <t>#e4e0fd</t>
-  </si>
-  <si>
-    <t>#dad6fd</t>
-  </si>
-  <si>
-    <t>#d1ccfc</t>
-  </si>
-  <si>
-    <t>#c7c3fb</t>
-  </si>
-  <si>
-    <t>#bdb9fb</t>
-  </si>
-  <si>
-    <t>#b3affa</t>
-  </si>
-  <si>
-    <t>#a8a6f9</t>
-  </si>
-  <si>
-    <t>#9d9cf8</t>
-  </si>
-  <si>
-    <t>#9293f7</t>
-  </si>
-  <si>
-    <t>#868af6</t>
-  </si>
-  <si>
-    <t>#7980f5</t>
-  </si>
-  <si>
-    <t>#6b77f3</t>
-  </si>
-  <si>
-    <t>#5c6ff2</t>
+    <t>#f7f5ff</t>
+  </si>
+  <si>
+    <t>#eeecfe</t>
+  </si>
+  <si>
+    <t>#e5e2fe</t>
+  </si>
+  <si>
+    <t>#dcd9fd</t>
+  </si>
+  <si>
+    <t>#d4cffc</t>
+  </si>
+  <si>
+    <t>#cac6fc</t>
+  </si>
+  <si>
+    <t>#c1bdfb</t>
+  </si>
+  <si>
+    <t>#b8b4fa</t>
+  </si>
+  <si>
+    <t>#aeabf9</t>
+  </si>
+  <si>
+    <t>#a4a2f8</t>
+  </si>
+  <si>
+    <t>#9999f7</t>
+  </si>
+  <si>
+    <t>#8f90f7</t>
+  </si>
+  <si>
+    <t>#8387f5</t>
+  </si>
+  <si>
+    <t>#777ff4</t>
+  </si>
+  <si>
+    <t>#6a76f3</t>
+  </si>
+  <si>
+    <t>#5b6ef2</t>
+  </si>
+  <si>
+    <t>#E8D1FF</t>
+  </si>
+  <si>
+    <t>? # a</t>
+  </si>
+  <si>
+    <t>? # b</t>
+  </si>
+  <si>
+    <t>? # c</t>
+  </si>
+  <si>
+    <t>? # d</t>
   </si>
 </sst>
 </file>
@@ -572,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0">
-  <autoFilter ref="A1:G89" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G93" totalsRowShown="0">
+  <autoFilter ref="A1:G93" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -588,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -896,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1658,16 +1676,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>44352</v>
+        <v>44357</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -1675,19 +1696,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>44352</v>
+        <v>44357</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -1695,16 +1716,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>44354</v>
+        <v>44357</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -1712,19 +1736,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44342</v>
+        <v>44357</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -1732,39 +1756,36 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="F40" t="s">
-        <v>46</v>
-      </c>
       <c r="G40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
         <v>96</v>
@@ -1772,33 +1793,30 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
       <c r="G42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
@@ -1812,13 +1830,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
@@ -1832,13 +1850,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -1852,13 +1870,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -1878,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
@@ -1898,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
@@ -1918,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
@@ -1938,7 +1956,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -1952,13 +1970,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>44350</v>
+        <v>44343</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1972,13 +1990,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>44353</v>
+        <v>44343</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
@@ -1992,19 +2010,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
         <v>96</v>
@@ -2012,70 +2030,79 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>44346</v>
+        <v>44343</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
       </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
       <c r="G54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
       </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
       <c r="G55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>44347</v>
+        <v>44353</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
       </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
       <c r="G56" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G57" t="s">
         <v>96</v>
@@ -2083,59 +2110,50 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
       </c>
-      <c r="F58" t="s">
-        <v>35</v>
-      </c>
       <c r="G58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>44</v>
       </c>
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
       <c r="G59" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
       </c>
       <c r="G60" t="s">
         <v>96</v>
@@ -2146,13 +2164,16 @@
         <v>44348</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>96</v>
@@ -2163,27 +2184,30 @@
         <v>44348</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
         <v>44</v>
       </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
       <c r="G62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -2197,13 +2221,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
         <v>44</v>
@@ -2217,99 +2241,93 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
         <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -2317,13 +2335,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>62</v>
@@ -2337,13 +2355,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
         <v>62</v>
@@ -2357,19 +2375,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>44352</v>
+        <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -2377,19 +2395,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -2397,19 +2415,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -2417,13 +2435,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
         <v>62</v>
@@ -2437,19 +2455,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -2457,19 +2475,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
         <v>108</v>
-      </c>
-      <c r="C77" t="s">
-        <v>126</v>
       </c>
       <c r="D77" t="s">
         <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -2477,19 +2495,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
         <v>114</v>
-      </c>
-      <c r="C78" t="s">
-        <v>127</v>
       </c>
       <c r="D78" t="s">
         <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -2497,19 +2515,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>97</v>
@@ -2517,110 +2535,110 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>44346</v>
+        <v>44354</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>44350</v>
+        <v>44346</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
         <v>61</v>
       </c>
-      <c r="F84" t="s">
-        <v>71</v>
-      </c>
       <c r="G84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
         <v>61</v>
@@ -2634,19 +2652,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>44354</v>
+        <v>44348</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
         <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G86" t="s">
         <v>96</v>
@@ -2654,13 +2672,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>44354</v>
+        <v>44348</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
         <v>61</v>
@@ -2674,13 +2692,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B88" t="s">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
         <v>61</v>
@@ -2694,13 +2712,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>44355</v>
+        <v>44352</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
         <v>61</v>
@@ -2709,6 +2727,86 @@
         <v>35</v>
       </c>
       <c r="G89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2723,9 +2821,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2914,10 +3012,21 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D90CE5-CFEF-4FAB-BD81-6802600E7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E11D0-2384-4E7D-A95A-DD5D9EF5AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="170">
   <si>
     <t>Source</t>
   </si>
@@ -226,9 +226,6 @@
     <t>West Melbourne</t>
   </si>
   <si>
-    <t>M 1</t>
-  </si>
-  <si>
     <t>M # a</t>
   </si>
   <si>
@@ -460,54 +457,9 @@
     <t>#327EC4</t>
   </si>
   <si>
-    <t>#f7f5ff</t>
-  </si>
-  <si>
-    <t>#eeecfe</t>
-  </si>
-  <si>
-    <t>#e5e2fe</t>
-  </si>
-  <si>
-    <t>#dcd9fd</t>
-  </si>
-  <si>
-    <t>#d4cffc</t>
-  </si>
-  <si>
-    <t>#cac6fc</t>
-  </si>
-  <si>
-    <t>#c1bdfb</t>
-  </si>
-  <si>
-    <t>#b8b4fa</t>
-  </si>
-  <si>
     <t>#aeabf9</t>
   </si>
   <si>
-    <t>#a4a2f8</t>
-  </si>
-  <si>
-    <t>#9999f7</t>
-  </si>
-  <si>
-    <t>#8f90f7</t>
-  </si>
-  <si>
-    <t>#8387f5</t>
-  </si>
-  <si>
-    <t>#777ff4</t>
-  </si>
-  <si>
-    <t>#6a76f3</t>
-  </si>
-  <si>
-    <t>#5b6ef2</t>
-  </si>
-  <si>
     <t>#E8D1FF</t>
   </si>
   <si>
@@ -521,6 +473,78 @@
   </si>
   <si>
     <t>? # d</t>
+  </si>
+  <si>
+    <t>Q 1</t>
+  </si>
+  <si>
+    <t>Q 2</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>? # e</t>
+  </si>
+  <si>
+    <t>#f7f6ff</t>
+  </si>
+  <si>
+    <t>#f0eefe</t>
+  </si>
+  <si>
+    <t>#e8e5fe</t>
+  </si>
+  <si>
+    <t>#e0ddfd</t>
+  </si>
+  <si>
+    <t>#d8d4fd</t>
+  </si>
+  <si>
+    <t>#d0ccfc</t>
+  </si>
+  <si>
+    <t>#c8c4fb</t>
+  </si>
+  <si>
+    <t>#c0bbfb</t>
+  </si>
+  <si>
+    <t>#b7b3fa</t>
+  </si>
+  <si>
+    <t>#a5a3f9</t>
+  </si>
+  <si>
+    <t>#9c9bf8</t>
+  </si>
+  <si>
+    <t>#9393f7</t>
+  </si>
+  <si>
+    <t>#898bf6</t>
+  </si>
+  <si>
+    <t>#7e84f5</t>
+  </si>
+  <si>
+    <t>#737cf4</t>
+  </si>
+  <si>
+    <t>#6775f3</t>
+  </si>
+  <si>
+    <t>#596df2</t>
+  </si>
+  <si>
+    <t>#E2C5FF</t>
+  </si>
+  <si>
+    <t>Under investigation</t>
+  </si>
+  <si>
+    <t>M #</t>
   </si>
 </sst>
 </file>
@@ -590,8 +614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G93" totalsRowShown="0">
-  <autoFilter ref="A1:G93" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0">
+  <autoFilter ref="A1:G96" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -606,8 +630,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -914,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -949,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -966,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -989,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1009,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1032,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1055,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1075,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1101,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1124,7 +1148,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1147,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1170,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1193,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1216,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1227,16 +1251,16 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1259,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1282,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1305,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1328,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1351,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1362,16 +1386,16 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1382,13 +1406,13 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1411,7 +1435,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1422,16 +1446,16 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1439,11 +1463,11 @@
         <v>44348</v>
       </c>
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1459,10 +1483,10 @@
         <v>44348</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1471,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1479,10 +1503,10 @@
         <v>44348</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1491,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1511,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1531,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1551,7 +1575,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1571,7 +1595,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1582,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1591,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1602,7 +1626,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1611,7 +1635,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1622,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1631,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1642,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1651,7 +1675,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1662,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1671,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1679,10 +1703,10 @@
         <v>44357</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1691,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1699,10 +1723,10 @@
         <v>44357</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1711,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1719,10 +1743,10 @@
         <v>44357</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1731,7 +1755,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1739,10 +1763,10 @@
         <v>44357</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1751,121 +1775,121 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44352</v>
+        <v>44357</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44354</v>
+        <v>44357</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>44342</v>
+        <v>44352</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
-        <v>46</v>
-      </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1876,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -1885,18 +1909,18 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
@@ -1905,18 +1929,18 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
@@ -1925,18 +1949,18 @@
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
@@ -1945,7 +1969,7 @@
         <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1956,7 +1980,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -1965,7 +1989,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1976,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1985,7 +2009,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1996,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
@@ -2005,7 +2029,7 @@
         <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -2016,7 +2040,7 @@
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -2025,7 +2049,7 @@
         <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -2036,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -2045,18 +2069,18 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>44350</v>
+        <v>44343</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
@@ -2065,18 +2089,18 @@
         <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>44353</v>
+        <v>44343</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
@@ -2085,158 +2109,158 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>58</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
       </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
         <v>44</v>
       </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
       <c r="G59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>44347</v>
+        <v>44344</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
       </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
       </c>
-      <c r="F61" t="s">
-        <v>35</v>
-      </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
         <v>44</v>
       </c>
-      <c r="F62" t="s">
-        <v>35</v>
-      </c>
       <c r="G62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
       </c>
-      <c r="F63" t="s">
-        <v>35</v>
-      </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2244,16 +2268,19 @@
         <v>44348</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>44</v>
       </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2261,116 +2288,113 @@
         <v>44348</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
         <v>44</v>
       </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>44356</v>
+        <v>44348</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
         <v>44</v>
       </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
@@ -2378,10 +2402,10 @@
         <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2390,38 +2414,38 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
         <v>62</v>
@@ -2430,18 +2454,18 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
         <v>62</v>
@@ -2450,127 +2474,127 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
         <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
         <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
         <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -2578,10 +2602,10 @@
         <v>44354</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>62</v>
@@ -2590,41 +2614,44 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
         <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>44346</v>
+        <v>44354</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F84" t="s">
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>96</v>
@@ -2632,16 +2659,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
@@ -2652,19 +2679,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="G86" t="s">
         <v>96</v>
@@ -2672,142 +2699,199 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
         <v>61</v>
       </c>
-      <c r="F87" t="s">
-        <v>72</v>
-      </c>
       <c r="G87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
         <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="B89" t="s">
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
         <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>44354</v>
+        <v>44348</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
         <v>61</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
         <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B92" t="s">
         <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
         <v>61</v>
       </c>
       <c r="F92" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G93" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2821,9 +2905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2839,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2847,10 +2933,10 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2858,10 +2944,10 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2869,7 +2955,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2880,10 +2966,10 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2891,7 +2977,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2902,10 +2988,10 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -2913,10 +2999,10 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2924,10 +3010,10 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2935,10 +3021,10 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2946,10 +3032,10 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2957,10 +3043,10 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2968,10 +3054,10 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2979,10 +3065,10 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -2990,10 +3076,10 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -3001,10 +3087,10 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -3012,10 +3098,10 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -3023,10 +3109,32 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E11D0-2384-4E7D-A95A-DD5D9EF5AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2876F-8AD5-4F39-8E2E-45BF200D8FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -457,9 +457,6 @@
     <t>#327EC4</t>
   </si>
   <si>
-    <t>#aeabf9</t>
-  </si>
-  <si>
     <t>#E8D1FF</t>
   </si>
   <si>
@@ -487,57 +484,6 @@
     <t>? # e</t>
   </si>
   <si>
-    <t>#f7f6ff</t>
-  </si>
-  <si>
-    <t>#f0eefe</t>
-  </si>
-  <si>
-    <t>#e8e5fe</t>
-  </si>
-  <si>
-    <t>#e0ddfd</t>
-  </si>
-  <si>
-    <t>#d8d4fd</t>
-  </si>
-  <si>
-    <t>#d0ccfc</t>
-  </si>
-  <si>
-    <t>#c8c4fb</t>
-  </si>
-  <si>
-    <t>#c0bbfb</t>
-  </si>
-  <si>
-    <t>#b7b3fa</t>
-  </si>
-  <si>
-    <t>#a5a3f9</t>
-  </si>
-  <si>
-    <t>#9c9bf8</t>
-  </si>
-  <si>
-    <t>#9393f7</t>
-  </si>
-  <si>
-    <t>#898bf6</t>
-  </si>
-  <si>
-    <t>#7e84f5</t>
-  </si>
-  <si>
-    <t>#737cf4</t>
-  </si>
-  <si>
-    <t>#6775f3</t>
-  </si>
-  <si>
-    <t>#596df2</t>
-  </si>
-  <si>
     <t>#E2C5FF</t>
   </si>
   <si>
@@ -545,6 +491,69 @@
   </si>
   <si>
     <t>M #</t>
+  </si>
+  <si>
+    <t>A # e</t>
+  </si>
+  <si>
+    <t>#f8f7ff</t>
+  </si>
+  <si>
+    <t>#f1effe</t>
+  </si>
+  <si>
+    <t>#e9e6fe</t>
+  </si>
+  <si>
+    <t>#e2defd</t>
+  </si>
+  <si>
+    <t>#dad6fd</t>
+  </si>
+  <si>
+    <t>#d3cefc</t>
+  </si>
+  <si>
+    <t>#cbc7fc</t>
+  </si>
+  <si>
+    <t>#c3bffb</t>
+  </si>
+  <si>
+    <t>#bbb7fa</t>
+  </si>
+  <si>
+    <t>#b3affa</t>
+  </si>
+  <si>
+    <t>#aaa7f9</t>
+  </si>
+  <si>
+    <t>#a2a0f8</t>
+  </si>
+  <si>
+    <t>#9998f7</t>
+  </si>
+  <si>
+    <t>#9091f7</t>
+  </si>
+  <si>
+    <t>#868af6</t>
+  </si>
+  <si>
+    <t>#7c82f5</t>
+  </si>
+  <si>
+    <t>#717bf4</t>
+  </si>
+  <si>
+    <t>#6574f3</t>
+  </si>
+  <si>
+    <t>#586df2</t>
+  </si>
+  <si>
+    <t>#CC99FF</t>
   </si>
 </sst>
 </file>
@@ -614,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0">
-  <autoFilter ref="A1:G96" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G97" totalsRowShown="0">
+  <autoFilter ref="A1:G97" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -630,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -938,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1703,10 +1712,10 @@
         <v>44357</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1723,10 +1732,10 @@
         <v>44357</v>
       </c>
       <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1743,10 +1752,10 @@
         <v>44357</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1763,10 +1772,10 @@
         <v>44357</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1783,16 +1792,16 @@
         <v>44359</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
         <v>95</v>
@@ -1803,13 +1812,13 @@
         <v>44357</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
@@ -1823,13 +1832,13 @@
         <v>44357</v>
       </c>
       <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
         <v>146</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>147</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -2402,10 +2411,10 @@
         <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2422,7 +2431,7 @@
         <v>44349</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -2442,7 +2451,7 @@
         <v>44349</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
@@ -2462,7 +2471,7 @@
         <v>44349</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
@@ -2562,7 +2571,7 @@
         <v>44352</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
         <v>107</v>
@@ -2891,6 +2900,26 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2905,11 +2934,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2933,7 +2960,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -2944,7 +2971,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -2955,7 +2982,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2966,7 +2993,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -2977,7 +3004,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2988,7 +3015,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>134</v>
@@ -2999,7 +3026,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3010,7 +3037,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
@@ -3021,7 +3048,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3032,7 +3059,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3043,7 +3070,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3054,7 +3081,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -3065,7 +3092,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3076,7 +3103,7 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -3087,7 +3114,7 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3098,7 +3125,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
@@ -3109,10 +3136,10 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -3120,10 +3147,10 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -3131,10 +3158,21 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C20" t="s">
-        <v>167</v>
+      <c r="C21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2876F-8AD5-4F39-8E2E-45BF200D8FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F8788-A74E-4200-9B4D-C5C4B74417B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="176">
   <si>
     <t>Source</t>
   </si>
@@ -487,9 +487,6 @@
     <t>#E2C5FF</t>
   </si>
   <si>
-    <t>Under investigation</t>
-  </si>
-  <si>
     <t>M #</t>
   </si>
   <si>
@@ -502,58 +499,70 @@
     <t>#f1effe</t>
   </si>
   <si>
-    <t>#e9e6fe</t>
-  </si>
-  <si>
-    <t>#e2defd</t>
-  </si>
-  <si>
-    <t>#dad6fd</t>
-  </si>
-  <si>
-    <t>#d3cefc</t>
-  </si>
-  <si>
-    <t>#cbc7fc</t>
-  </si>
-  <si>
-    <t>#c3bffb</t>
-  </si>
-  <si>
-    <t>#bbb7fa</t>
-  </si>
-  <si>
-    <t>#b3affa</t>
-  </si>
-  <si>
-    <t>#aaa7f9</t>
-  </si>
-  <si>
-    <t>#a2a0f8</t>
-  </si>
-  <si>
-    <t>#9998f7</t>
-  </si>
-  <si>
-    <t>#9091f7</t>
-  </si>
-  <si>
-    <t>#868af6</t>
-  </si>
-  <si>
-    <t>#7c82f5</t>
-  </si>
-  <si>
-    <t>#717bf4</t>
-  </si>
-  <si>
-    <t>#6574f3</t>
-  </si>
-  <si>
     <t>#586df2</t>
   </si>
   <si>
     <t>#CC99FF</t>
+  </si>
+  <si>
+    <t>A # f</t>
+  </si>
+  <si>
+    <t>A # g</t>
+  </si>
+  <si>
+    <t>#eae8fe</t>
+  </si>
+  <si>
+    <t>#e3e0fd</t>
+  </si>
+  <si>
+    <t>#dcd8fd</t>
+  </si>
+  <si>
+    <t>#d5d1fc</t>
+  </si>
+  <si>
+    <t>#cdc9fc</t>
+  </si>
+  <si>
+    <t>#c6c2fb</t>
+  </si>
+  <si>
+    <t>#bebafb</t>
+  </si>
+  <si>
+    <t>#b7b3fa</t>
+  </si>
+  <si>
+    <t>#afacf9</t>
+  </si>
+  <si>
+    <t>#a7a4f9</t>
+  </si>
+  <si>
+    <t>#9e9df8</t>
+  </si>
+  <si>
+    <t>#9696f7</t>
+  </si>
+  <si>
+    <t>#8d8ff6</t>
+  </si>
+  <si>
+    <t>#8488f6</t>
+  </si>
+  <si>
+    <t>#7a81f5</t>
+  </si>
+  <si>
+    <t>#6f7af4</t>
+  </si>
+  <si>
+    <t>#6473f3</t>
+  </si>
+  <si>
+    <t>#9968FB</t>
   </si>
 </sst>
 </file>
@@ -623,8 +632,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G97" totalsRowShown="0">
-  <autoFilter ref="A1:G97" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G99" totalsRowShown="0">
+  <autoFilter ref="A1:G99" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -639,8 +648,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -947,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1789,10 +1798,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
         <v>148</v>
@@ -1801,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>95</v>
@@ -2411,10 +2420,10 @@
         <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2431,7 +2440,7 @@
         <v>44349</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -2451,7 +2460,7 @@
         <v>44349</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
@@ -2471,7 +2480,7 @@
         <v>44349</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
@@ -2571,7 +2580,7 @@
         <v>44352</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
         <v>107</v>
@@ -2911,7 +2920,7 @@
         <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
         <v>61</v>
@@ -2920,6 +2929,43 @@
         <v>70</v>
       </c>
       <c r="G97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B98" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2934,7 +2980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2960,7 +3006,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -2971,7 +3017,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -2982,7 +3028,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2993,7 +3039,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -3004,7 +3050,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -3015,7 +3061,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>134</v>
@@ -3026,7 +3072,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3037,7 +3083,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
@@ -3048,7 +3094,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3059,7 +3105,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3070,7 +3116,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3081,7 +3127,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -3092,7 +3138,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3103,7 +3149,7 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -3114,7 +3160,7 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3125,7 +3171,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
@@ -3136,7 +3182,7 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>140</v>
@@ -3147,7 +3193,7 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
@@ -3158,7 +3204,7 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
         <v>149</v>
@@ -3169,10 +3215,21 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
-        <v>172</v>
+      <c r="C22" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F8788-A74E-4200-9B4D-C5C4B74417B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E6152-9B0A-4B3F-A07E-AB20CA90B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="175">
   <si>
     <t>Source</t>
   </si>
@@ -460,18 +460,6 @@
     <t>#E8D1FF</t>
   </si>
   <si>
-    <t>? # a</t>
-  </si>
-  <si>
-    <t>? # b</t>
-  </si>
-  <si>
-    <t>? # c</t>
-  </si>
-  <si>
-    <t>? # d</t>
-  </si>
-  <si>
     <t>Q 1</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>Queensland</t>
   </si>
   <si>
-    <t>? # e</t>
-  </si>
-  <si>
     <t>#E2C5FF</t>
   </si>
   <si>
@@ -563,6 +548,18 @@
   </si>
   <si>
     <t>#9968FB</t>
+  </si>
+  <si>
+    <t>? 2</t>
+  </si>
+  <si>
+    <t>? 3</t>
+  </si>
+  <si>
+    <t>? 4</t>
+  </si>
+  <si>
+    <t>? 5</t>
   </si>
 </sst>
 </file>
@@ -958,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1721,10 +1718,10 @@
         <v>44357</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1741,10 +1738,10 @@
         <v>44357</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1761,10 +1758,10 @@
         <v>44357</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1781,10 +1778,10 @@
         <v>44357</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1801,10 +1798,10 @@
         <v>44361</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1821,13 +1818,13 @@
         <v>44357</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
@@ -1841,13 +1838,13 @@
         <v>44357</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -2420,10 +2417,10 @@
         <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2440,7 +2437,7 @@
         <v>44349</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -2460,7 +2457,7 @@
         <v>44349</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
@@ -2480,7 +2477,7 @@
         <v>44349</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
@@ -2580,7 +2577,7 @@
         <v>44352</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
         <v>107</v>
@@ -2920,7 +2917,7 @@
         <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
         <v>61</v>
@@ -2940,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
         <v>61</v>
@@ -2954,10 +2951,10 @@
         <v>44361</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D99" t="s">
         <v>61</v>
@@ -3006,7 +3003,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3017,7 +3014,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -3028,7 +3025,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3039,7 +3036,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -3050,7 +3047,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -3061,7 +3058,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>134</v>
@@ -3072,7 +3069,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3083,7 +3080,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
@@ -3094,7 +3091,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3105,7 +3102,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3116,7 +3113,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3127,7 +3124,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -3138,7 +3135,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3149,7 +3146,7 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -3160,7 +3157,7 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3171,7 +3168,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
@@ -3182,7 +3179,7 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>140</v>
@@ -3193,7 +3190,7 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
@@ -3204,10 +3201,10 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -3215,10 +3212,10 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -3229,7 +3226,7 @@
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E6152-9B0A-4B3F-A07E-AB20CA90B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8445B1DB-69DE-4404-8F11-A112AFD08874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="188">
   <si>
     <t>Source</t>
   </si>
@@ -478,15 +478,6 @@
     <t>A # e</t>
   </si>
   <si>
-    <t>#f8f7ff</t>
-  </si>
-  <si>
-    <t>#f1effe</t>
-  </si>
-  <si>
-    <t>#586df2</t>
-  </si>
-  <si>
     <t>#CC99FF</t>
   </si>
   <si>
@@ -496,57 +487,9 @@
     <t>A # g</t>
   </si>
   <si>
-    <t>#eae8fe</t>
-  </si>
-  <si>
-    <t>#e3e0fd</t>
-  </si>
-  <si>
-    <t>#dcd8fd</t>
-  </si>
-  <si>
-    <t>#d5d1fc</t>
-  </si>
-  <si>
-    <t>#cdc9fc</t>
-  </si>
-  <si>
-    <t>#c6c2fb</t>
-  </si>
-  <si>
-    <t>#bebafb</t>
-  </si>
-  <si>
-    <t>#b7b3fa</t>
-  </si>
-  <si>
     <t>#afacf9</t>
   </si>
   <si>
-    <t>#a7a4f9</t>
-  </si>
-  <si>
-    <t>#9e9df8</t>
-  </si>
-  <si>
-    <t>#9696f7</t>
-  </si>
-  <si>
-    <t>#8d8ff6</t>
-  </si>
-  <si>
-    <t>#8488f6</t>
-  </si>
-  <si>
-    <t>#7a81f5</t>
-  </si>
-  <si>
-    <t>#6f7af4</t>
-  </si>
-  <si>
-    <t>#6473f3</t>
-  </si>
-  <si>
     <t>#9968FB</t>
   </si>
   <si>
@@ -560,6 +503,102 @@
   </si>
   <si>
     <t>? 5</t>
+  </si>
+  <si>
+    <t>A # h</t>
+  </si>
+  <si>
+    <t>Epping private hospital</t>
+  </si>
+  <si>
+    <t>Southbank Apartments</t>
+  </si>
+  <si>
+    <t>A # i</t>
+  </si>
+  <si>
+    <t>A # j</t>
+  </si>
+  <si>
+    <t>A # k</t>
+  </si>
+  <si>
+    <t>A # l</t>
+  </si>
+  <si>
+    <t>#f9f8ff</t>
+  </si>
+  <si>
+    <t>#f2f1fe</t>
+  </si>
+  <si>
+    <t>#eceafe</t>
+  </si>
+  <si>
+    <t>#e6e3fe</t>
+  </si>
+  <si>
+    <t>#dfdcfd</t>
+  </si>
+  <si>
+    <t>#d9d5fd</t>
+  </si>
+  <si>
+    <t>#d2cefc</t>
+  </si>
+  <si>
+    <t>#cbc7fc</t>
+  </si>
+  <si>
+    <t>#c4c0fb</t>
+  </si>
+  <si>
+    <t>#bdb9fb</t>
+  </si>
+  <si>
+    <t>#b6b3fa</t>
+  </si>
+  <si>
+    <t>#a8a5f9</t>
+  </si>
+  <si>
+    <t>#a09ff8</t>
+  </si>
+  <si>
+    <t>#9998f7</t>
+  </si>
+  <si>
+    <t>#9192f7</t>
+  </si>
+  <si>
+    <t>#888bf6</t>
+  </si>
+  <si>
+    <t>#7f85f5</t>
+  </si>
+  <si>
+    <t>#767ef4</t>
+  </si>
+  <si>
+    <t>#6d78f4</t>
+  </si>
+  <si>
+    <t>#6272f3</t>
+  </si>
+  <si>
+    <t>#566cf2</t>
+  </si>
+  <si>
+    <t>#FFF7DA</t>
+  </si>
+  <si>
+    <t>Shape dbRaevn</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
 </sst>
 </file>
@@ -601,9 +640,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G99" totalsRowShown="0">
-  <autoFilter ref="A1:G99" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G104" totalsRowShown="0">
+  <autoFilter ref="A1:G104" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -645,12 +685,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D24" totalsRowShown="0">
+  <autoFilter ref="A1:D24" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
     <tableColumn id="3" xr3:uid="{5515E15E-02B9-4694-A9AF-CEC9E403B50A}" name="Colour Code dbRaevn"/>
+    <tableColumn id="4" xr3:uid="{965FB11F-4D10-4566-B8AC-F8EA56AEE87C}" name="Shape dbRaevn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1741,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1761,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1781,7 +1822,7 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1801,7 +1842,7 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -2937,7 +2978,7 @@
         <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
         <v>61</v>
@@ -2951,10 +2992,10 @@
         <v>44361</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
         <v>61</v>
@@ -2963,23 +3004,126 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" t="s">
+        <v>158</v>
+      </c>
+      <c r="G102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" t="s">
+        <v>158</v>
+      </c>
+      <c r="G103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G104" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2987,7 +3131,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2997,236 +3141,327 @@
       <c r="C1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44361</v>
       </c>
       <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s">
-        <v>170</v>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8445B1DB-69DE-4404-8F11-A112AFD08874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96332C-20E6-4EB0-B8F0-46BEB60A1204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="194">
   <si>
     <t>Source</t>
   </si>
@@ -418,9 +418,6 @@
     <t>M # m</t>
   </si>
   <si>
-    <t>A # d</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -481,15 +478,6 @@
     <t>#CC99FF</t>
   </si>
   <si>
-    <t>A # f</t>
-  </si>
-  <si>
-    <t>A # g</t>
-  </si>
-  <si>
-    <t>#afacf9</t>
-  </si>
-  <si>
     <t>#9968FB</t>
   </si>
   <si>
@@ -505,90 +493,18 @@
     <t>? 5</t>
   </si>
   <si>
-    <t>A # h</t>
-  </si>
-  <si>
     <t>Epping private hospital</t>
   </si>
   <si>
     <t>Southbank Apartments</t>
   </si>
   <si>
-    <t>A # i</t>
-  </si>
-  <si>
-    <t>A # j</t>
-  </si>
-  <si>
-    <t>A # k</t>
-  </si>
-  <si>
     <t>A # l</t>
   </si>
   <si>
     <t>#f9f8ff</t>
   </si>
   <si>
-    <t>#f2f1fe</t>
-  </si>
-  <si>
-    <t>#eceafe</t>
-  </si>
-  <si>
-    <t>#e6e3fe</t>
-  </si>
-  <si>
-    <t>#dfdcfd</t>
-  </si>
-  <si>
-    <t>#d9d5fd</t>
-  </si>
-  <si>
-    <t>#d2cefc</t>
-  </si>
-  <si>
-    <t>#cbc7fc</t>
-  </si>
-  <si>
-    <t>#c4c0fb</t>
-  </si>
-  <si>
-    <t>#bdb9fb</t>
-  </si>
-  <si>
-    <t>#b6b3fa</t>
-  </si>
-  <si>
-    <t>#a8a5f9</t>
-  </si>
-  <si>
-    <t>#a09ff8</t>
-  </si>
-  <si>
-    <t>#9998f7</t>
-  </si>
-  <si>
-    <t>#9192f7</t>
-  </si>
-  <si>
-    <t>#888bf6</t>
-  </si>
-  <si>
-    <t>#7f85f5</t>
-  </si>
-  <si>
-    <t>#767ef4</t>
-  </si>
-  <si>
-    <t>#6d78f4</t>
-  </si>
-  <si>
-    <t>#6272f3</t>
-  </si>
-  <si>
-    <t>#566cf2</t>
-  </si>
-  <si>
     <t>#FFF7DA</t>
   </si>
   <si>
@@ -599,6 +515,108 @@
   </si>
   <si>
     <t>Diamond</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>A / S</t>
+  </si>
+  <si>
+    <t>S 1</t>
+  </si>
+  <si>
+    <t>S 2</t>
+  </si>
+  <si>
+    <t>S 3</t>
+  </si>
+  <si>
+    <t>S 4</t>
+  </si>
+  <si>
+    <t>S 5</t>
+  </si>
+  <si>
+    <t>S 6</t>
+  </si>
+  <si>
+    <t>S 7</t>
+  </si>
+  <si>
+    <t>S 8</t>
+  </si>
+  <si>
+    <t>#f3f2fe</t>
+  </si>
+  <si>
+    <t>#eeebfe</t>
+  </si>
+  <si>
+    <t>#e8e5fe</t>
+  </si>
+  <si>
+    <t>#e2defd</t>
+  </si>
+  <si>
+    <t>#dcd8fd</t>
+  </si>
+  <si>
+    <t>#d6d2fd</t>
+  </si>
+  <si>
+    <t>#d0cbfc</t>
+  </si>
+  <si>
+    <t>#c9c5fc</t>
+  </si>
+  <si>
+    <t>#c3bffb</t>
+  </si>
+  <si>
+    <t>#bdb8fb</t>
+  </si>
+  <si>
+    <t>#b6b2fa</t>
+  </si>
+  <si>
+    <t>#b0acf9</t>
+  </si>
+  <si>
+    <t>#a9a6f9</t>
+  </si>
+  <si>
+    <t>#a2a0f8</t>
+  </si>
+  <si>
+    <t>#9b9af8</t>
+  </si>
+  <si>
+    <t>#9394f7</t>
+  </si>
+  <si>
+    <t>#8c8ef6</t>
+  </si>
+  <si>
+    <t>#8488f6</t>
+  </si>
+  <si>
+    <t>#7c82f5</t>
+  </si>
+  <si>
+    <t>#737cf4</t>
+  </si>
+  <si>
+    <t>#6a77f3</t>
+  </si>
+  <si>
+    <t>#6071f3</t>
+  </si>
+  <si>
+    <t>#556cf2</t>
+  </si>
+  <si>
+    <t>#FFECA0</t>
   </si>
 </sst>
 </file>
@@ -640,10 +658,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G104" totalsRowShown="0">
-  <autoFilter ref="A1:G104" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G105" totalsRowShown="0">
+  <autoFilter ref="A1:G105" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -685,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -994,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1782,7 +1799,7 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1802,7 +1819,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1822,7 +1839,7 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1842,7 +1859,7 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1859,13 +1876,13 @@
         <v>44357</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
@@ -1879,13 +1896,13 @@
         <v>44357</v>
       </c>
       <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>142</v>
-      </c>
-      <c r="D42" t="s">
-        <v>143</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -2441,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
         <v>44</v>
@@ -2458,10 +2475,10 @@
         <v>44349</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2478,7 +2495,7 @@
         <v>44349</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -2498,7 +2515,7 @@
         <v>44349</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
@@ -2518,7 +2535,7 @@
         <v>44349</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
@@ -2547,7 +2564,7 @@
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" t="s">
         <v>96</v>
@@ -2607,7 +2624,7 @@
         <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G79" t="s">
         <v>96</v>
@@ -2618,7 +2635,7 @@
         <v>44352</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
         <v>107</v>
@@ -2741,13 +2758,13 @@
         <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G86" t="s">
         <v>96</v>
@@ -2878,7 +2895,7 @@
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
         <v>61</v>
@@ -2898,13 +2915,13 @@
         <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s">
         <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
         <v>95</v>
@@ -2912,13 +2929,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>44354</v>
+        <v>44360</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
         <v>61</v>
@@ -2932,19 +2949,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>44355</v>
+        <v>44363</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
         <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
         <v>95</v>
@@ -2952,19 +2969,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>44360</v>
+        <v>44354</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
         <v>95</v>
@@ -2972,16 +2989,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>44359</v>
+        <v>44355</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>160</v>
+      </c>
+      <c r="F98" t="s">
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>95</v>
@@ -2989,19 +3009,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="G99" t="s">
         <v>95</v>
@@ -3009,16 +3029,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -3032,13 +3052,13 @@
         <v>44363</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F101" t="s">
         <v>35</v>
@@ -3052,16 +3072,16 @@
         <v>44363</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" t="s">
         <v>160</v>
       </c>
-      <c r="D102" t="s">
-        <v>61</v>
-      </c>
       <c r="F102" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>95</v>
@@ -3071,17 +3091,17 @@
       <c r="A103" s="1">
         <v>44363</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>127</v>
+      <c r="B103" t="s">
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F103" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G103" t="s">
         <v>95</v>
@@ -3092,18 +3112,38 @@
         <v>44363</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3119,11 +3159,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3142,7 +3180,7 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3150,13 +3188,13 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -3164,13 +3202,13 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3178,13 +3216,13 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -3192,13 +3230,13 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3206,13 +3244,13 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3220,13 +3258,13 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3234,13 +3272,13 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3248,13 +3286,13 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3262,13 +3300,13 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3276,13 +3314,13 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3290,13 +3328,13 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -3304,13 +3342,13 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3318,13 +3356,13 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -3332,13 +3370,13 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -3346,13 +3384,13 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -3360,13 +3398,13 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -3374,13 +3412,13 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -3388,13 +3426,13 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -3402,13 +3440,13 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -3416,13 +3454,13 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -3430,13 +3468,13 @@
         <v>44361</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -3444,10 +3482,10 @@
         <v>44362</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -3455,16 +3493,42 @@
         <v>44363</v>
       </c>
       <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96332C-20E6-4EB0-B8F0-46BEB60A1204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495B1D6-1E17-403C-9118-CEA3528C5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="201">
   <si>
     <t>Source</t>
   </si>
@@ -502,9 +502,6 @@
     <t>A # l</t>
   </si>
   <si>
-    <t>#f9f8ff</t>
-  </si>
-  <si>
     <t>#FFF7DA</t>
   </si>
   <si>
@@ -547,76 +544,100 @@
     <t>S 8</t>
   </si>
   <si>
-    <t>#f3f2fe</t>
-  </si>
-  <si>
-    <t>#eeebfe</t>
-  </si>
-  <si>
-    <t>#e8e5fe</t>
-  </si>
-  <si>
-    <t>#e2defd</t>
-  </si>
-  <si>
-    <t>#dcd8fd</t>
-  </si>
-  <si>
-    <t>#d6d2fd</t>
-  </si>
-  <si>
-    <t>#d0cbfc</t>
-  </si>
-  <si>
-    <t>#c9c5fc</t>
-  </si>
-  <si>
-    <t>#c3bffb</t>
-  </si>
-  <si>
-    <t>#bdb8fb</t>
-  </si>
-  <si>
-    <t>#b6b2fa</t>
-  </si>
-  <si>
-    <t>#b0acf9</t>
-  </si>
-  <si>
-    <t>#a9a6f9</t>
-  </si>
-  <si>
-    <t>#a2a0f8</t>
-  </si>
-  <si>
-    <t>#9b9af8</t>
-  </si>
-  <si>
-    <t>#9394f7</t>
-  </si>
-  <si>
-    <t>#8c8ef6</t>
-  </si>
-  <si>
-    <t>#8488f6</t>
-  </si>
-  <si>
-    <t>#7c82f5</t>
-  </si>
-  <si>
-    <t>#737cf4</t>
-  </si>
-  <si>
-    <t>#6a77f3</t>
-  </si>
-  <si>
-    <t>#6071f3</t>
-  </si>
-  <si>
-    <t>#556cf2</t>
-  </si>
-  <si>
     <t>#FFECA0</t>
+  </si>
+  <si>
+    <t>S 9</t>
+  </si>
+  <si>
+    <t>#FADA67</t>
+  </si>
+  <si>
+    <t>#b9b5fa</t>
+  </si>
+  <si>
+    <t>#b3affa</t>
+  </si>
+  <si>
+    <t>S 10</t>
+  </si>
+  <si>
+    <t>#E4AC01</t>
+  </si>
+  <si>
+    <t>#faf9ff</t>
+  </si>
+  <si>
+    <t>#f5f3fe</t>
+  </si>
+  <si>
+    <t>#efedfe</t>
+  </si>
+  <si>
+    <t>#eae8fe</t>
+  </si>
+  <si>
+    <t>#e5e2fe</t>
+  </si>
+  <si>
+    <t>#e0dcfd</t>
+  </si>
+  <si>
+    <t>#dad6fd</t>
+  </si>
+  <si>
+    <t>#d5d1fc</t>
+  </si>
+  <si>
+    <t>#cfcbfc</t>
+  </si>
+  <si>
+    <t>#cac5fc</t>
+  </si>
+  <si>
+    <t>#c4c0fb</t>
+  </si>
+  <si>
+    <t>#bebafb</t>
+  </si>
+  <si>
+    <t>#adaaf9</t>
+  </si>
+  <si>
+    <t>#a7a4f9</t>
+  </si>
+  <si>
+    <t>#a19ff8</t>
+  </si>
+  <si>
+    <t>#9a99f8</t>
+  </si>
+  <si>
+    <t>#9494f7</t>
+  </si>
+  <si>
+    <t>#8d8ff6</t>
+  </si>
+  <si>
+    <t>#868af6</t>
+  </si>
+  <si>
+    <t>#7f84f5</t>
+  </si>
+  <si>
+    <t>#777ff4</t>
+  </si>
+  <si>
+    <t>#6f7af4</t>
+  </si>
+  <si>
+    <t>#6775f3</t>
+  </si>
+  <si>
+    <t>#5e70f2</t>
+  </si>
+  <si>
+    <t>#546bf2</t>
   </si>
 </sst>
 </file>
@@ -686,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G105" totalsRowShown="0">
-  <autoFilter ref="A1:G105" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G107" totalsRowShown="0">
+  <autoFilter ref="A1:G107" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -702,8 +723,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D26" totalsRowShown="0">
-  <autoFilter ref="A1:D26" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -1011,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2975,10 +2996,10 @@
         <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97" t="s">
         <v>71</v>
@@ -2992,13 +3013,13 @@
         <v>44355</v>
       </c>
       <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
         <v>161</v>
       </c>
-      <c r="C98" t="s">
-        <v>162</v>
-      </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
         <v>35</v>
@@ -3012,13 +3033,13 @@
         <v>44359</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F99" t="s">
         <v>153</v>
@@ -3032,13 +3053,13 @@
         <v>44361</v>
       </c>
       <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
         <v>163</v>
       </c>
-      <c r="C100" t="s">
-        <v>164</v>
-      </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -3052,13 +3073,13 @@
         <v>44363</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F101" t="s">
         <v>35</v>
@@ -3072,13 +3093,13 @@
         <v>44363</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102" t="s">
         <v>35</v>
@@ -3092,13 +3113,13 @@
         <v>44363</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F103" t="s">
         <v>153</v>
@@ -3112,13 +3133,13 @@
         <v>44363</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F104" t="s">
         <v>153</v>
@@ -3132,18 +3153,58 @@
         <v>44365</v>
       </c>
       <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
         <v>168</v>
       </c>
-      <c r="C105" t="s">
-        <v>169</v>
-      </c>
       <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B106" t="s">
         <v>160</v>
       </c>
-      <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="F106" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G107" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3159,9 +3220,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3169,7 +3232,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3180,217 +3243,301 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" t="s">
+        <v>191</v>
+      </c>
+      <c r="X2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -3398,13 +3545,13 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -3412,13 +3559,13 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -3426,13 +3573,13 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -3440,13 +3587,13 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -3454,13 +3601,13 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -3468,13 +3615,13 @@
         <v>44361</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
         <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -3482,10 +3629,10 @@
         <v>44362</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -3493,13 +3640,13 @@
         <v>44363</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -3507,10 +3654,10 @@
         <v>44364</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -3518,13 +3665,52 @@
         <v>44365</v>
       </c>
       <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B29" t="s">
         <v>115</v>
       </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" t="s">
-        <v>159</v>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495B1D6-1E17-403C-9118-CEA3528C5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245454D6-812B-4CC2-AE7F-58486924DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="206">
   <si>
     <t>Source</t>
   </si>
@@ -553,91 +553,106 @@
     <t>#FADA67</t>
   </si>
   <si>
-    <t>#b9b5fa</t>
-  </si>
-  <si>
-    <t>#b3affa</t>
-  </si>
-  <si>
     <t>S 10</t>
   </si>
   <si>
     <t>#E4AC01</t>
   </si>
   <si>
-    <t>#faf9ff</t>
-  </si>
-  <si>
-    <t>#f5f3fe</t>
-  </si>
-  <si>
-    <t>#efedfe</t>
-  </si>
-  <si>
-    <t>#eae8fe</t>
-  </si>
-  <si>
-    <t>#e5e2fe</t>
-  </si>
-  <si>
-    <t>#e0dcfd</t>
-  </si>
-  <si>
-    <t>#dad6fd</t>
-  </si>
-  <si>
-    <t>#d5d1fc</t>
-  </si>
-  <si>
     <t>#cfcbfc</t>
   </si>
   <si>
-    <t>#cac5fc</t>
-  </si>
-  <si>
-    <t>#c4c0fb</t>
-  </si>
-  <si>
-    <t>#bebafb</t>
-  </si>
-  <si>
-    <t>#adaaf9</t>
-  </si>
-  <si>
-    <t>#a7a4f9</t>
-  </si>
-  <si>
-    <t>#a19ff8</t>
-  </si>
-  <si>
     <t>#9a99f8</t>
   </si>
   <si>
     <t>#9494f7</t>
   </si>
   <si>
-    <t>#8d8ff6</t>
-  </si>
-  <si>
-    <t>#868af6</t>
-  </si>
-  <si>
-    <t>#7f84f5</t>
-  </si>
-  <si>
-    <t>#777ff4</t>
-  </si>
-  <si>
-    <t>#6f7af4</t>
-  </si>
-  <si>
-    <t>#6775f3</t>
-  </si>
-  <si>
-    <t>#5e70f2</t>
-  </si>
-  <si>
-    <t>#546bf2</t>
+    <t>S 11</t>
+  </si>
+  <si>
+    <t>#fafaff</t>
+  </si>
+  <si>
+    <t>#f6f4ff</t>
+  </si>
+  <si>
+    <t>#f1effe</t>
+  </si>
+  <si>
+    <t>#eceafe</t>
+  </si>
+  <si>
+    <t>#e8e5fe</t>
+  </si>
+  <si>
+    <t>#e3dffd</t>
+  </si>
+  <si>
+    <t>#dedafd</t>
+  </si>
+  <si>
+    <t>#d9d5fd</t>
+  </si>
+  <si>
+    <t>#d4d0fc</t>
+  </si>
+  <si>
+    <t>#cac6fc</t>
+  </si>
+  <si>
+    <t>#c5c1fb</t>
+  </si>
+  <si>
+    <t>#c0bcfb</t>
+  </si>
+  <si>
+    <t>#bbb7fa</t>
+  </si>
+  <si>
+    <t>#b5b2fa</t>
+  </si>
+  <si>
+    <t>#b0adf9</t>
+  </si>
+  <si>
+    <t>#aba8f9</t>
+  </si>
+  <si>
+    <t>#a5a3f9</t>
+  </si>
+  <si>
+    <t>#a09ef8</t>
+  </si>
+  <si>
+    <t>#8e90f6</t>
+  </si>
+  <si>
+    <t>#888bf6</t>
+  </si>
+  <si>
+    <t>#8186f5</t>
+  </si>
+  <si>
+    <t>#7b81f5</t>
+  </si>
+  <si>
+    <t>#747df4</t>
+  </si>
+  <si>
+    <t>#6c78f4</t>
+  </si>
+  <si>
+    <t>#6473f3</t>
+  </si>
+  <si>
+    <t>#5c6ff2</t>
+  </si>
+  <si>
+    <t>#536af2</t>
+  </si>
+  <si>
+    <t>#FCE5D1</t>
   </si>
 </sst>
 </file>
@@ -707,10 +722,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G107" totalsRowShown="0">
-  <autoFilter ref="A1:G107" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G108" totalsRowShown="0">
+  <autoFilter ref="A1:G108" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1A404655-FE9B-4B0A-80BF-03F432FB739E}" name="Target"/>
     <tableColumn id="4" xr3:uid="{8FC99DDE-493E-43A4-97C5-EB682B33678A}" name="Cluster"/>
@@ -723,10 +738,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
     <tableColumn id="3" xr3:uid="{5515E15E-02B9-4694-A9AF-CEC9E403B50A}" name="Colour Code dbRaevn"/>
     <tableColumn id="4" xr3:uid="{965FB11F-4D10-4566-B8AC-F8EA56AEE87C}" name="Shape dbRaevn"/>
@@ -1032,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3196,7 +3211,7 @@
         <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D107" t="s">
         <v>159</v>
@@ -3205,6 +3220,26 @@
         <v>153</v>
       </c>
       <c r="G107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" t="s">
+        <v>153</v>
+      </c>
+      <c r="G108" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3220,11 +3255,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3232,7 +3265,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3246,12 +3279,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
@@ -3259,97 +3292,13 @@
       <c r="D2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" t="s">
-        <v>172</v>
-      </c>
-      <c r="S2" t="s">
-        <v>173</v>
-      </c>
-      <c r="T2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U2" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W2" t="s">
-        <v>191</v>
-      </c>
-      <c r="X2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
@@ -3358,12 +3307,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3372,12 +3321,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
@@ -3386,12 +3335,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -3400,12 +3349,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -3414,12 +3363,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3428,12 +3377,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>134</v>
@@ -3442,12 +3391,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3456,12 +3405,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -3470,12 +3419,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3484,12 +3433,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -3498,12 +3447,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3512,12 +3461,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>137</v>
@@ -3526,12 +3475,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3545,7 +3494,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
@@ -3559,7 +3508,7 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
@@ -3573,7 +3522,7 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>139</v>
@@ -3587,7 +3536,7 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -3601,7 +3550,7 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
@@ -3615,7 +3564,7 @@
         <v>44361</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>147</v>
@@ -3629,7 +3578,7 @@
         <v>44362</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
@@ -3640,7 +3589,7 @@
         <v>44363</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
         <v>155</v>
@@ -3654,7 +3603,7 @@
         <v>44364</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
@@ -3665,7 +3614,7 @@
         <v>44365</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
         <v>169</v>
@@ -3679,7 +3628,7 @@
         <v>44366</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -3693,7 +3642,7 @@
         <v>44367</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -3704,12 +3653,48 @@
         <v>44368</v>
       </c>
       <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B32" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" t="s">
         <v>158</v>
       </c>
     </row>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245454D6-812B-4CC2-AE7F-58486924DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA191BA9-95A8-4A76-B1C9-91F5D744E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="210">
   <si>
     <t>Source</t>
   </si>
@@ -559,100 +559,112 @@
     <t>#E4AC01</t>
   </si>
   <si>
-    <t>#cfcbfc</t>
-  </si>
-  <si>
-    <t>#9a99f8</t>
-  </si>
-  <si>
-    <t>#9494f7</t>
-  </si>
-  <si>
     <t>S 11</t>
   </si>
   <si>
-    <t>#fafaff</t>
-  </si>
-  <si>
-    <t>#f6f4ff</t>
-  </si>
-  <si>
-    <t>#f1effe</t>
-  </si>
-  <si>
-    <t>#eceafe</t>
-  </si>
-  <si>
-    <t>#e8e5fe</t>
-  </si>
-  <si>
-    <t>#e3dffd</t>
-  </si>
-  <si>
-    <t>#dedafd</t>
-  </si>
-  <si>
-    <t>#d9d5fd</t>
-  </si>
-  <si>
-    <t>#d4d0fc</t>
-  </si>
-  <si>
-    <t>#cac6fc</t>
-  </si>
-  <si>
-    <t>#c5c1fb</t>
-  </si>
-  <si>
-    <t>#c0bcfb</t>
-  </si>
-  <si>
-    <t>#bbb7fa</t>
-  </si>
-  <si>
-    <t>#b5b2fa</t>
-  </si>
-  <si>
-    <t>#b0adf9</t>
-  </si>
-  <si>
     <t>#aba8f9</t>
   </si>
   <si>
-    <t>#a5a3f9</t>
-  </si>
-  <si>
-    <t>#a09ef8</t>
-  </si>
-  <si>
-    <t>#8e90f6</t>
-  </si>
-  <si>
-    <t>#888bf6</t>
-  </si>
-  <si>
-    <t>#8186f5</t>
-  </si>
-  <si>
-    <t>#7b81f5</t>
-  </si>
-  <si>
-    <t>#747df4</t>
-  </si>
-  <si>
-    <t>#6c78f4</t>
-  </si>
-  <si>
-    <t>#6473f3</t>
-  </si>
-  <si>
-    <t>#5c6ff2</t>
-  </si>
-  <si>
     <t>#536af2</t>
   </si>
   <si>
     <t>#FCE5D1</t>
+  </si>
+  <si>
+    <t>#FFCFAF</t>
+  </si>
+  <si>
+    <t>#fbfaff</t>
+  </si>
+  <si>
+    <t>#f6f5ff</t>
+  </si>
+  <si>
+    <t>#f2f0fe</t>
+  </si>
+  <si>
+    <t>#edebfe</t>
+  </si>
+  <si>
+    <t>#e9e6fe</t>
+  </si>
+  <si>
+    <t>#e4e1fe</t>
+  </si>
+  <si>
+    <t>#e0dcfd</t>
+  </si>
+  <si>
+    <t>#dbd8fd</t>
+  </si>
+  <si>
+    <t>#d7d3fd</t>
+  </si>
+  <si>
+    <t>#d2cefc</t>
+  </si>
+  <si>
+    <t>#cdc9fc</t>
+  </si>
+  <si>
+    <t>#c9c4fc</t>
+  </si>
+  <si>
+    <t>#c4c0fb</t>
+  </si>
+  <si>
+    <t>#bfbbfb</t>
+  </si>
+  <si>
+    <t>#bab6fa</t>
+  </si>
+  <si>
+    <t>#b5b1fa</t>
+  </si>
+  <si>
+    <t>#b0adfa</t>
+  </si>
+  <si>
+    <t>#a6a4f9</t>
+  </si>
+  <si>
+    <t>#a19ff8</t>
+  </si>
+  <si>
+    <t>#9b9af8</t>
+  </si>
+  <si>
+    <t>#9696f7</t>
+  </si>
+  <si>
+    <t>#9091f7</t>
+  </si>
+  <si>
+    <t>#8a8df6</t>
+  </si>
+  <si>
+    <t>#8588f6</t>
+  </si>
+  <si>
+    <t>#7e84f5</t>
+  </si>
+  <si>
+    <t>#7880f5</t>
+  </si>
+  <si>
+    <t>#717bf4</t>
+  </si>
+  <si>
+    <t>#6a77f3</t>
+  </si>
+  <si>
+    <t>#6373f3</t>
+  </si>
+  <si>
+    <t>#5b6ef2</t>
+  </si>
+  <si>
+    <t>S 12</t>
   </si>
 </sst>
 </file>
@@ -722,10 +734,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G108" totalsRowShown="0">
-  <autoFilter ref="A1:G108" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G109" totalsRowShown="0">
+  <autoFilter ref="A1:G109" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1A404655-FE9B-4B0A-80BF-03F432FB739E}" name="Target"/>
     <tableColumn id="4" xr3:uid="{8FC99DDE-493E-43A4-97C5-EB682B33678A}" name="Cluster"/>
@@ -738,10 +750,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
     <tableColumn id="3" xr3:uid="{5515E15E-02B9-4694-A9AF-CEC9E403B50A}" name="Colour Code dbRaevn"/>
     <tableColumn id="4" xr3:uid="{965FB11F-4D10-4566-B8AC-F8EA56AEE87C}" name="Shape dbRaevn"/>
@@ -1047,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3231,7 +3243,7 @@
         <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D108" t="s">
         <v>159</v>
@@ -3240,6 +3252,26 @@
         <v>153</v>
       </c>
       <c r="G108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" t="s">
+        <v>153</v>
+      </c>
+      <c r="G109" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3255,7 +3287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3284,7 +3316,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
@@ -3298,7 +3330,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
@@ -3312,7 +3344,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3326,7 +3358,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
@@ -3340,7 +3372,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -3354,7 +3386,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -3368,7 +3400,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3382,7 +3414,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>134</v>
@@ -3396,7 +3428,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3410,7 +3442,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -3424,7 +3456,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3438,7 +3470,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -3452,7 +3484,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3466,7 +3498,7 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>137</v>
@@ -3480,7 +3512,7 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3494,7 +3526,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
@@ -3508,7 +3540,7 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
@@ -3522,7 +3554,7 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>139</v>
@@ -3536,7 +3568,7 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -3550,7 +3582,7 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
@@ -3564,7 +3596,7 @@
         <v>44361</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>147</v>
@@ -3578,7 +3610,7 @@
         <v>44362</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
@@ -3589,7 +3621,7 @@
         <v>44363</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>155</v>
@@ -3603,7 +3635,7 @@
         <v>44364</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
@@ -3614,7 +3646,7 @@
         <v>44365</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
         <v>169</v>
@@ -3628,7 +3660,7 @@
         <v>44366</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -3642,7 +3674,7 @@
         <v>44367</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -3653,7 +3685,7 @@
         <v>44368</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>173</v>
@@ -3667,7 +3699,7 @@
         <v>44369</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
         <v>158</v>
@@ -3678,7 +3710,7 @@
         <v>44370</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -3689,12 +3721,37 @@
         <v>44371</v>
       </c>
       <c r="B32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
         <v>158</v>
       </c>
     </row>

--- a/2021-05 Victorian Outbreak Paths.xlsx
+++ b/2021-05 Victorian Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA191BA9-95A8-4A76-B1C9-91F5D744E788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17148481-67A1-4C02-8390-B2B8F9A96215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="216">
   <si>
     <t>Source</t>
   </si>
@@ -562,109 +562,127 @@
     <t>S 11</t>
   </si>
   <si>
-    <t>#aba8f9</t>
-  </si>
-  <si>
-    <t>#536af2</t>
-  </si>
-  <si>
     <t>#FCE5D1</t>
   </si>
   <si>
     <t>#FFCFAF</t>
   </si>
   <si>
-    <t>#fbfaff</t>
-  </si>
-  <si>
-    <t>#f6f5ff</t>
-  </si>
-  <si>
-    <t>#f2f0fe</t>
-  </si>
-  <si>
-    <t>#edebfe</t>
-  </si>
-  <si>
-    <t>#e9e6fe</t>
-  </si>
-  <si>
-    <t>#e4e1fe</t>
-  </si>
-  <si>
-    <t>#e0dcfd</t>
-  </si>
-  <si>
-    <t>#dbd8fd</t>
-  </si>
-  <si>
     <t>#d7d3fd</t>
   </si>
   <si>
-    <t>#d2cefc</t>
-  </si>
-  <si>
-    <t>#cdc9fc</t>
-  </si>
-  <si>
-    <t>#c9c4fc</t>
-  </si>
-  <si>
-    <t>#c4c0fb</t>
-  </si>
-  <si>
-    <t>#bfbbfb</t>
-  </si>
-  <si>
-    <t>#bab6fa</t>
-  </si>
-  <si>
     <t>#b5b1fa</t>
   </si>
   <si>
-    <t>#b0adfa</t>
-  </si>
-  <si>
-    <t>#a6a4f9</t>
-  </si>
-  <si>
-    <t>#a19ff8</t>
-  </si>
-  <si>
-    <t>#9b9af8</t>
-  </si>
-  <si>
-    <t>#9696f7</t>
-  </si>
-  <si>
-    <t>#9091f7</t>
-  </si>
-  <si>
     <t>#8a8df6</t>
   </si>
   <si>
-    <t>#8588f6</t>
-  </si>
-  <si>
-    <t>#7e84f5</t>
-  </si>
-  <si>
-    <t>#7880f5</t>
-  </si>
-  <si>
-    <t>#717bf4</t>
-  </si>
-  <si>
-    <t>#6a77f3</t>
-  </si>
-  <si>
-    <t>#6373f3</t>
-  </si>
-  <si>
-    <t>#5b6ef2</t>
-  </si>
-  <si>
     <t>S 12</t>
+  </si>
+  <si>
+    <t>A # m</t>
+  </si>
+  <si>
+    <t>#fbfbff</t>
+  </si>
+  <si>
+    <t>#f7f6ff</t>
+  </si>
+  <si>
+    <t>#f3f2fe</t>
+  </si>
+  <si>
+    <t>#efedfe</t>
+  </si>
+  <si>
+    <t>#ebe9fe</t>
+  </si>
+  <si>
+    <t>#e7e5fe</t>
+  </si>
+  <si>
+    <t>#e3e0fd</t>
+  </si>
+  <si>
+    <t>#dfdcfd</t>
+  </si>
+  <si>
+    <t>#dbd7fd</t>
+  </si>
+  <si>
+    <t>#d3cffc</t>
+  </si>
+  <si>
+    <t>#cfcbfc</t>
+  </si>
+  <si>
+    <t>#cbc6fc</t>
+  </si>
+  <si>
+    <t>#c6c2fb</t>
+  </si>
+  <si>
+    <t>#c2befb</t>
+  </si>
+  <si>
+    <t>#bebafb</t>
+  </si>
+  <si>
+    <t>#b9b5fa</t>
+  </si>
+  <si>
+    <t>#b1adfa</t>
+  </si>
+  <si>
+    <t>#aca9f9</t>
+  </si>
+  <si>
+    <t>#a7a5f9</t>
+  </si>
+  <si>
+    <t>#a3a1f8</t>
+  </si>
+  <si>
+    <t>#9e9df8</t>
+  </si>
+  <si>
+    <t>#9999f7</t>
+  </si>
+  <si>
+    <t>#9495f7</t>
+  </si>
+  <si>
+    <t>#8f91f7</t>
+  </si>
+  <si>
+    <t>#8589f6</t>
+  </si>
+  <si>
+    <t>#7f85f5</t>
+  </si>
+  <si>
+    <t>#7a81f5</t>
+  </si>
+  <si>
+    <t>#747df4</t>
+  </si>
+  <si>
+    <t>#6e79f4</t>
+  </si>
+  <si>
+    <t>#6775f3</t>
+  </si>
+  <si>
+    <t>#6171f3</t>
+  </si>
+  <si>
+    <t>#596df2</t>
+  </si>
+  <si>
+    <t>#526af2</t>
+  </si>
+  <si>
+    <t>#EF7C34</t>
   </si>
 </sst>
 </file>
@@ -734,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G109" totalsRowShown="0">
-  <autoFilter ref="A1:G109" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G110" totalsRowShown="0">
+  <autoFilter ref="A1:G110" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -750,8 +768,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D34" totalsRowShown="0">
-  <autoFilter ref="A1:D34" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -1059,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3263,7 +3281,7 @@
         <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="D109" t="s">
         <v>159</v>
@@ -3272,6 +3290,26 @@
         <v>153</v>
       </c>
       <c r="G109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3287,9 +3325,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3316,7 +3356,7 @@
         <v>44341</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
@@ -3330,7 +3370,7 @@
         <v>44342</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
@@ -3344,7 +3384,7 @@
         <v>44343</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3358,7 +3398,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
@@ -3372,7 +3412,7 @@
         <v>44345</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -3386,7 +3426,7 @@
         <v>44346</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -3400,7 +3440,7 @@
         <v>44347</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -3414,7 +3454,7 @@
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>134</v>
@@ -3428,7 +3468,7 @@
         <v>44349</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -3442,7 +3482,7 @@
         <v>44350</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -3456,7 +3496,7 @@
         <v>44351</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3470,7 +3510,7 @@
         <v>44352</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -3484,7 +3524,7 @@
         <v>44353</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -3498,7 +3538,7 @@
         <v>44354</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>137</v>
@@ -3512,7 +3552,7 @@
         <v>44355</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -3526,7 +3566,7 @@
         <v>44356</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
@@ -3540,7 +3580,7 @@
         <v>44357</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
@@ -3554,7 +3594,7 @@
         <v>44358</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>139</v>
@@ -3568,7 +3608,7 @@
         <v>44359</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -3582,7 +3622,7 @@
         <v>44360</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
@@ -3596,7 +3636,7 @@
         <v>44361</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>147</v>
@@ -3610,7 +3650,7 @@
         <v>44362</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
@@ -3621,7 +3661,7 @@
         <v>44363</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>155</v>
@@ -3635,7 +3675,7 @@
         <v>44364</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
@@ -3646,7 +3686,7 @@
         <v>44365</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
         <v>169</v>
@@ -3660,7 +3700,7 @@
         <v>44366</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -3674,7 +3714,7 @@
         <v>44367</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -3685,7 +3725,7 @@
         <v>44368</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>173</v>
@@ -3699,7 +3739,7 @@
         <v>44369</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
         <v>158</v>
@@ -3710,7 +3750,7 @@
         <v>44370</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -3721,10 +3761,10 @@
         <v>44371</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
         <v>158</v>
@@ -3735,7 +3775,7 @@
         <v>44372</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
         <v>158</v>
@@ -3746,12 +3786,59 @@
         <v>44373</v>
       </c>
       <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
         <v>158</v>
       </c>
     </row>
